--- a/03_adjustment_upload.xlsx
+++ b/03_adjustment_upload.xlsx
@@ -1620,7 +1620,7 @@
         <v>131</v>
       </c>
       <c r="D6">
-        <v>60000257</v>
+        <v>60000273</v>
       </c>
       <c r="F6" t="s">
         <v>135</v>
@@ -1658,7 +1658,7 @@
         <v>131</v>
       </c>
       <c r="D7">
-        <v>60000257</v>
+        <v>60000273</v>
       </c>
       <c r="F7" t="s">
         <v>136</v>
@@ -1696,7 +1696,7 @@
         <v>131</v>
       </c>
       <c r="D8">
-        <v>60000257</v>
+        <v>60000273</v>
       </c>
       <c r="F8" t="s">
         <v>137</v>
@@ -1734,7 +1734,7 @@
         <v>131</v>
       </c>
       <c r="D9">
-        <v>60000257</v>
+        <v>60000273</v>
       </c>
       <c r="F9" t="s">
         <v>138</v>
@@ -1772,7 +1772,7 @@
         <v>131</v>
       </c>
       <c r="D10">
-        <v>60000257</v>
+        <v>60000273</v>
       </c>
       <c r="F10" t="s">
         <v>139</v>
@@ -1813,7 +1813,7 @@
         <v>60000000</v>
       </c>
       <c r="E11">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F11" t="s">
         <v>135</v>
@@ -1854,7 +1854,7 @@
         <v>60000000</v>
       </c>
       <c r="E12">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F12" t="s">
         <v>136</v>
@@ -1895,7 +1895,7 @@
         <v>60000000</v>
       </c>
       <c r="E13">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F13" t="s">
         <v>137</v>
@@ -1936,7 +1936,7 @@
         <v>60000000</v>
       </c>
       <c r="E14">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F14" t="s">
         <v>138</v>
@@ -1977,7 +1977,7 @@
         <v>60000000</v>
       </c>
       <c r="E15">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F15" t="s">
         <v>139</v>
@@ -2012,7 +2012,7 @@
         <v>131</v>
       </c>
       <c r="D16">
-        <v>60000257</v>
+        <v>60000273</v>
       </c>
       <c r="F16" t="s">
         <v>140</v>
@@ -2047,7 +2047,7 @@
         <v>131</v>
       </c>
       <c r="D17">
-        <v>60000257</v>
+        <v>60000273</v>
       </c>
       <c r="F17" t="s">
         <v>141</v>
@@ -2085,7 +2085,7 @@
         <v>60000000</v>
       </c>
       <c r="E18">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F18" t="s">
         <v>140</v>
@@ -2123,7 +2123,7 @@
         <v>60000000</v>
       </c>
       <c r="E19">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="F19" t="s">
         <v>141</v>

--- a/03_adjustment_upload.xlsx
+++ b/03_adjustment_upload.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="185">
   <si>
     <t>Overview</t>
   </si>
@@ -390,15 +390,36 @@
     <t>7</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>20</t>
   </si>
   <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>*Ledger (2)</t>
   </si>
   <si>
@@ -444,6 +465,9 @@
     <t>650</t>
   </si>
   <si>
+    <t xml:space="preserve"> 898</t>
+  </si>
+  <si>
     <t>*Posting Depreciation Area (2)</t>
   </si>
   <si>
@@ -511,6 +535,30 @@
   </si>
   <si>
     <t>MPA_ADJUSTMENT_14</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_TRANSF_SCENARIO_SENDER_MAIN</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_TRANSF_SCENARIO_SENDER_SUB</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_TRANSF_SCENARIO_INTRA_REC_MAIN</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_TRANSF_SCENARIO_INTRA_REC_SUB</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_RETIRE_PARTIAL_SCENARIO1</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_RETIRE_PARTIAL_SCENARIO2</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_RETIRE_FULL_SCENARIO1</t>
+  </si>
+  <si>
+    <t>MPA_ADJUSTMENT_RETIRE_FULLL_SCENARIO2</t>
   </si>
   <si>
     <t>Document Type (2)</t>
@@ -1476,7 +1524,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1558,49 +1606,49 @@
         <v>119</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E5" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F5" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="G5" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="H5" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="I5" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="J5" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="K5" t="s">
         <v>90</v>
       </c>
       <c r="L5" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="M5" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="N5" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="O5" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="P5" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="Q5" t="s">
         <v>96</v>
@@ -1614,34 +1662,34 @@
         <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D6">
-        <v>60000273</v>
+        <v>60000287</v>
       </c>
       <c r="F6" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="G6" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="H6" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="I6" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="J6" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="K6" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="L6" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="Q6" t="s">
         <v>105</v>
@@ -1652,34 +1700,34 @@
         <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D7">
-        <v>60000273</v>
+        <v>60000287</v>
       </c>
       <c r="F7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="G7" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="H7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="I7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="J7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="K7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="L7" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="Q7" t="s">
         <v>105</v>
@@ -1687,37 +1735,37 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D8">
-        <v>60000273</v>
+        <v>60000287</v>
       </c>
       <c r="F8" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="G8" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="H8" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="I8" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="J8" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="K8" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="L8" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="Q8" t="s">
         <v>105</v>
@@ -1725,37 +1773,37 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D9">
-        <v>60000273</v>
+        <v>60000287</v>
       </c>
       <c r="F9" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="G9" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="H9" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="I9" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="J9" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="K9" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="L9" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="Q9" t="s">
         <v>105</v>
@@ -1763,37 +1811,37 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C10" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D10">
-        <v>60000273</v>
+        <v>60000287</v>
       </c>
       <c r="F10" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="G10" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="H10" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="I10" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="J10" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="K10" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="L10" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="Q10" t="s">
         <v>105</v>
@@ -1801,40 +1849,40 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C11" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D11">
         <v>60000000</v>
       </c>
       <c r="E11">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="F11" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="G11" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="H11" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="I11" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="J11" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="K11" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="L11" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="Q11" t="s">
         <v>105</v>
@@ -1842,40 +1890,40 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C12" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D12">
         <v>60000000</v>
       </c>
       <c r="E12">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="G12" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="H12" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="I12" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="J12" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="K12" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="L12" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="Q12" t="s">
         <v>105</v>
@@ -1883,40 +1931,40 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C13" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D13">
         <v>60000000</v>
       </c>
       <c r="E13">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="F13" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="G13" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="H13" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="I13" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="J13" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="K13" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="Q13" t="s">
         <v>105</v>
@@ -1927,37 +1975,37 @@
         <v>124</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C14" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D14">
         <v>60000000</v>
       </c>
       <c r="E14">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="G14" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="H14" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="I14" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="J14" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="K14" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="L14" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="Q14" t="s">
         <v>105</v>
@@ -1965,40 +2013,40 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B15" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C15" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D15">
         <v>60000000</v>
       </c>
       <c r="E15">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="F15" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="G15" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="H15" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="I15" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="J15" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="K15" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="L15" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2006,145 +2054,437 @@
         <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C16" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D16">
-        <v>60000273</v>
+        <v>60000287</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="G16" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="H16" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="I16" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="J16" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="K16" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C17" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D17">
-        <v>60000273</v>
+        <v>60000287</v>
       </c>
       <c r="F17" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="G17" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="H17" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="I17" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="J17" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="K17" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="L17" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B18" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C18" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D18">
         <v>60000000</v>
       </c>
       <c r="E18">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="F18" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="G18" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="H18" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="I18" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="J18" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="K18" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="L18" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B19" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C19" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D19">
         <v>60000000</v>
       </c>
       <c r="E19">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="F19" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="G19" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="H19" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="I19" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="J19" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="K19" t="s">
+        <v>157</v>
+      </c>
+      <c r="L19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20">
+        <v>60000288</v>
+      </c>
+      <c r="F20" t="s">
         <v>149</v>
       </c>
-      <c r="L19" t="s">
-        <v>164</v>
+      <c r="G20" t="s">
+        <v>151</v>
+      </c>
+      <c r="H20" t="s">
+        <v>154</v>
+      </c>
+      <c r="I20" t="s">
+        <v>154</v>
+      </c>
+      <c r="J20" t="s">
+        <v>154</v>
+      </c>
+      <c r="K20" t="s">
+        <v>157</v>
+      </c>
+      <c r="L20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21">
+        <v>60000000</v>
+      </c>
+      <c r="E21">
+        <v>229</v>
+      </c>
+      <c r="F21" t="s">
+        <v>149</v>
+      </c>
+      <c r="G21" t="s">
+        <v>151</v>
+      </c>
+      <c r="H21" t="s">
+        <v>154</v>
+      </c>
+      <c r="I21" t="s">
+        <v>154</v>
+      </c>
+      <c r="J21" t="s">
+        <v>154</v>
+      </c>
+      <c r="K21" t="s">
+        <v>157</v>
+      </c>
+      <c r="L21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22">
+        <v>60000289</v>
+      </c>
+      <c r="F22" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" t="s">
+        <v>151</v>
+      </c>
+      <c r="H22" t="s">
+        <v>154</v>
+      </c>
+      <c r="I22" t="s">
+        <v>154</v>
+      </c>
+      <c r="J22" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" t="s">
+        <v>157</v>
+      </c>
+      <c r="L22" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23">
+        <v>60000000</v>
+      </c>
+      <c r="E23">
+        <v>230</v>
+      </c>
+      <c r="F23" t="s">
+        <v>149</v>
+      </c>
+      <c r="G23" t="s">
+        <v>151</v>
+      </c>
+      <c r="H23" t="s">
+        <v>154</v>
+      </c>
+      <c r="I23" t="s">
+        <v>154</v>
+      </c>
+      <c r="J23" t="s">
+        <v>154</v>
+      </c>
+      <c r="K23" t="s">
+        <v>157</v>
+      </c>
+      <c r="L23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24">
+        <v>60000290</v>
+      </c>
+      <c r="F24" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24" t="s">
+        <v>151</v>
+      </c>
+      <c r="H24" t="s">
+        <v>154</v>
+      </c>
+      <c r="I24" t="s">
+        <v>154</v>
+      </c>
+      <c r="J24" t="s">
+        <v>154</v>
+      </c>
+      <c r="K24" t="s">
+        <v>157</v>
+      </c>
+      <c r="L24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25">
+        <v>60000000</v>
+      </c>
+      <c r="E25">
+        <v>231</v>
+      </c>
+      <c r="F25" t="s">
+        <v>149</v>
+      </c>
+      <c r="G25" t="s">
+        <v>151</v>
+      </c>
+      <c r="H25" t="s">
+        <v>154</v>
+      </c>
+      <c r="I25" t="s">
+        <v>154</v>
+      </c>
+      <c r="J25" t="s">
+        <v>154</v>
+      </c>
+      <c r="K25" t="s">
+        <v>157</v>
+      </c>
+      <c r="L25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26">
+        <v>60000291</v>
+      </c>
+      <c r="F26" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" t="s">
+        <v>151</v>
+      </c>
+      <c r="H26" t="s">
+        <v>154</v>
+      </c>
+      <c r="I26" t="s">
+        <v>154</v>
+      </c>
+      <c r="J26" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27">
+        <v>60000000</v>
+      </c>
+      <c r="E27">
+        <v>232</v>
+      </c>
+      <c r="F27" t="s">
+        <v>149</v>
+      </c>
+      <c r="G27" t="s">
+        <v>151</v>
+      </c>
+      <c r="H27" t="s">
+        <v>154</v>
+      </c>
+      <c r="I27" t="s">
+        <v>154</v>
+      </c>
+      <c r="J27" t="s">
+        <v>154</v>
+      </c>
+      <c r="K27" t="s">
+        <v>157</v>
+      </c>
+      <c r="L27" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/03_adjustment_upload.xlsx
+++ b/03_adjustment_upload.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="184">
   <si>
     <t>Overview</t>
   </si>
@@ -463,9 +463,6 @@
   </si>
   <si>
     <t>650</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 898</t>
   </si>
   <si>
     <t>*Posting Depreciation Area (2)</t>
@@ -1621,34 +1618,34 @@
         <v>141</v>
       </c>
       <c r="G5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I5" t="s">
+        <v>154</v>
+      </c>
+      <c r="J5" t="s">
         <v>155</v>
-      </c>
-      <c r="J5" t="s">
-        <v>156</v>
       </c>
       <c r="K5" t="s">
         <v>90</v>
       </c>
       <c r="L5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M5" t="s">
+        <v>180</v>
+      </c>
+      <c r="N5" t="s">
         <v>181</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>182</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>183</v>
-      </c>
-      <c r="P5" t="s">
-        <v>184</v>
       </c>
       <c r="Q5" t="s">
         <v>96</v>
@@ -1674,22 +1671,22 @@
         <v>142</v>
       </c>
       <c r="G6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q6" t="s">
         <v>105</v>
@@ -1712,22 +1709,22 @@
         <v>143</v>
       </c>
       <c r="G7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q7" t="s">
         <v>105</v>
@@ -1750,22 +1747,22 @@
         <v>144</v>
       </c>
       <c r="G8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q8" t="s">
         <v>105</v>
@@ -1788,22 +1785,22 @@
         <v>145</v>
       </c>
       <c r="G9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q9" t="s">
         <v>105</v>
@@ -1826,22 +1823,22 @@
         <v>146</v>
       </c>
       <c r="G10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q10" t="s">
         <v>105</v>
@@ -1867,22 +1864,22 @@
         <v>142</v>
       </c>
       <c r="G11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q11" t="s">
         <v>105</v>
@@ -1908,22 +1905,22 @@
         <v>143</v>
       </c>
       <c r="G12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q12" t="s">
         <v>105</v>
@@ -1949,22 +1946,22 @@
         <v>144</v>
       </c>
       <c r="G13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q13" t="s">
         <v>105</v>
@@ -1990,22 +1987,22 @@
         <v>145</v>
       </c>
       <c r="G14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q14" t="s">
         <v>105</v>
@@ -2031,22 +2028,22 @@
         <v>146</v>
       </c>
       <c r="G15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2066,22 +2063,22 @@
         <v>147</v>
       </c>
       <c r="G16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2101,22 +2098,22 @@
         <v>148</v>
       </c>
       <c r="G17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2139,22 +2136,22 @@
         <v>147</v>
       </c>
       <c r="G18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2177,22 +2174,22 @@
         <v>148</v>
       </c>
       <c r="G19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2209,25 +2206,25 @@
         <v>60000288</v>
       </c>
       <c r="F20" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2247,25 +2244,25 @@
         <v>229</v>
       </c>
       <c r="F21" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2282,25 +2279,25 @@
         <v>60000289</v>
       </c>
       <c r="F22" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2320,25 +2317,25 @@
         <v>230</v>
       </c>
       <c r="F23" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2355,25 +2352,25 @@
         <v>60000290</v>
       </c>
       <c r="F24" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2393,25 +2390,25 @@
         <v>231</v>
       </c>
       <c r="F25" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2428,25 +2425,25 @@
         <v>60000291</v>
       </c>
       <c r="F26" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2466,25 +2463,25 @@
         <v>232</v>
       </c>
       <c r="F27" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/03_adjustment_upload.xlsx
+++ b/03_adjustment_upload.xlsx
@@ -1665,7 +1665,7 @@
         <v>138</v>
       </c>
       <c r="D6">
-        <v>60000287</v>
+        <v>60000305</v>
       </c>
       <c r="F6" t="s">
         <v>142</v>
@@ -1703,7 +1703,7 @@
         <v>138</v>
       </c>
       <c r="D7">
-        <v>60000287</v>
+        <v>60000305</v>
       </c>
       <c r="F7" t="s">
         <v>143</v>
@@ -1741,7 +1741,7 @@
         <v>138</v>
       </c>
       <c r="D8">
-        <v>60000287</v>
+        <v>60000305</v>
       </c>
       <c r="F8" t="s">
         <v>144</v>
@@ -1779,7 +1779,7 @@
         <v>138</v>
       </c>
       <c r="D9">
-        <v>60000287</v>
+        <v>60000305</v>
       </c>
       <c r="F9" t="s">
         <v>145</v>
@@ -1817,7 +1817,7 @@
         <v>138</v>
       </c>
       <c r="D10">
-        <v>60000287</v>
+        <v>60000305</v>
       </c>
       <c r="F10" t="s">
         <v>146</v>
@@ -1858,7 +1858,7 @@
         <v>60000000</v>
       </c>
       <c r="E11">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F11" t="s">
         <v>142</v>
@@ -1899,7 +1899,7 @@
         <v>60000000</v>
       </c>
       <c r="E12">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F12" t="s">
         <v>143</v>
@@ -1940,7 +1940,7 @@
         <v>60000000</v>
       </c>
       <c r="E13">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F13" t="s">
         <v>144</v>
@@ -1981,7 +1981,7 @@
         <v>60000000</v>
       </c>
       <c r="E14">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F14" t="s">
         <v>145</v>
@@ -2022,7 +2022,7 @@
         <v>60000000</v>
       </c>
       <c r="E15">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F15" t="s">
         <v>146</v>
@@ -2057,7 +2057,7 @@
         <v>138</v>
       </c>
       <c r="D16">
-        <v>60000287</v>
+        <v>60000305</v>
       </c>
       <c r="F16" t="s">
         <v>147</v>
@@ -2092,7 +2092,7 @@
         <v>138</v>
       </c>
       <c r="D17">
-        <v>60000287</v>
+        <v>60000305</v>
       </c>
       <c r="F17" t="s">
         <v>148</v>
@@ -2130,7 +2130,7 @@
         <v>60000000</v>
       </c>
       <c r="E18">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F18" t="s">
         <v>147</v>
@@ -2168,7 +2168,7 @@
         <v>60000000</v>
       </c>
       <c r="E19">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F19" t="s">
         <v>148</v>
@@ -2203,7 +2203,7 @@
         <v>138</v>
       </c>
       <c r="D20">
-        <v>60000288</v>
+        <v>60000306</v>
       </c>
       <c r="F20" t="s">
         <v>142</v>
@@ -2241,7 +2241,7 @@
         <v>60000000</v>
       </c>
       <c r="E21">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="F21" t="s">
         <v>142</v>
@@ -2276,7 +2276,7 @@
         <v>138</v>
       </c>
       <c r="D22">
-        <v>60000289</v>
+        <v>60000307</v>
       </c>
       <c r="F22" t="s">
         <v>142</v>
@@ -2314,7 +2314,7 @@
         <v>60000000</v>
       </c>
       <c r="E23">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="F23" t="s">
         <v>142</v>
@@ -2349,7 +2349,7 @@
         <v>138</v>
       </c>
       <c r="D24">
-        <v>60000290</v>
+        <v>60000308</v>
       </c>
       <c r="F24" t="s">
         <v>142</v>
@@ -2387,7 +2387,7 @@
         <v>60000000</v>
       </c>
       <c r="E25">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="F25" t="s">
         <v>142</v>
@@ -2422,7 +2422,7 @@
         <v>138</v>
       </c>
       <c r="D26">
-        <v>60000291</v>
+        <v>60000309</v>
       </c>
       <c r="F26" t="s">
         <v>142</v>
@@ -2460,7 +2460,7 @@
         <v>60000000</v>
       </c>
       <c r="E27">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="F27" t="s">
         <v>142</v>

--- a/03_adjustment_upload.xlsx
+++ b/03_adjustment_upload.xlsx
@@ -1665,7 +1665,7 @@
         <v>138</v>
       </c>
       <c r="D6">
-        <v>60000305</v>
+        <v>60000338</v>
       </c>
       <c r="F6" t="s">
         <v>142</v>
@@ -1703,7 +1703,7 @@
         <v>138</v>
       </c>
       <c r="D7">
-        <v>60000305</v>
+        <v>60000338</v>
       </c>
       <c r="F7" t="s">
         <v>143</v>
@@ -1741,7 +1741,7 @@
         <v>138</v>
       </c>
       <c r="D8">
-        <v>60000305</v>
+        <v>60000338</v>
       </c>
       <c r="F8" t="s">
         <v>144</v>
@@ -1779,7 +1779,7 @@
         <v>138</v>
       </c>
       <c r="D9">
-        <v>60000305</v>
+        <v>60000338</v>
       </c>
       <c r="F9" t="s">
         <v>145</v>
@@ -1817,7 +1817,7 @@
         <v>138</v>
       </c>
       <c r="D10">
-        <v>60000305</v>
+        <v>60000338</v>
       </c>
       <c r="F10" t="s">
         <v>146</v>
@@ -1858,7 +1858,7 @@
         <v>60000000</v>
       </c>
       <c r="E11">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="F11" t="s">
         <v>142</v>
@@ -1899,7 +1899,7 @@
         <v>60000000</v>
       </c>
       <c r="E12">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="F12" t="s">
         <v>143</v>
@@ -1940,7 +1940,7 @@
         <v>60000000</v>
       </c>
       <c r="E13">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="F13" t="s">
         <v>144</v>
@@ -1981,7 +1981,7 @@
         <v>60000000</v>
       </c>
       <c r="E14">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="F14" t="s">
         <v>145</v>
@@ -2022,7 +2022,7 @@
         <v>60000000</v>
       </c>
       <c r="E15">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="F15" t="s">
         <v>146</v>
@@ -2057,7 +2057,7 @@
         <v>138</v>
       </c>
       <c r="D16">
-        <v>60000305</v>
+        <v>60000338</v>
       </c>
       <c r="F16" t="s">
         <v>147</v>
@@ -2092,7 +2092,7 @@
         <v>138</v>
       </c>
       <c r="D17">
-        <v>60000305</v>
+        <v>60000338</v>
       </c>
       <c r="F17" t="s">
         <v>148</v>
@@ -2130,7 +2130,7 @@
         <v>60000000</v>
       </c>
       <c r="E18">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="F18" t="s">
         <v>147</v>
@@ -2168,7 +2168,7 @@
         <v>60000000</v>
       </c>
       <c r="E19">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="F19" t="s">
         <v>148</v>
@@ -2203,7 +2203,7 @@
         <v>138</v>
       </c>
       <c r="D20">
-        <v>60000306</v>
+        <v>60000339</v>
       </c>
       <c r="F20" t="s">
         <v>142</v>
@@ -2241,7 +2241,7 @@
         <v>60000000</v>
       </c>
       <c r="E21">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="F21" t="s">
         <v>142</v>
@@ -2276,7 +2276,7 @@
         <v>138</v>
       </c>
       <c r="D22">
-        <v>60000307</v>
+        <v>60000340</v>
       </c>
       <c r="F22" t="s">
         <v>142</v>
@@ -2314,7 +2314,7 @@
         <v>60000000</v>
       </c>
       <c r="E23">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="F23" t="s">
         <v>142</v>
@@ -2349,7 +2349,7 @@
         <v>138</v>
       </c>
       <c r="D24">
-        <v>60000308</v>
+        <v>60000341</v>
       </c>
       <c r="F24" t="s">
         <v>142</v>
@@ -2387,7 +2387,7 @@
         <v>60000000</v>
       </c>
       <c r="E25">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="F25" t="s">
         <v>142</v>
@@ -2422,7 +2422,7 @@
         <v>138</v>
       </c>
       <c r="D26">
-        <v>60000309</v>
+        <v>60000342</v>
       </c>
       <c r="F26" t="s">
         <v>142</v>
@@ -2460,7 +2460,7 @@
         <v>60000000</v>
       </c>
       <c r="E27">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="F27" t="s">
         <v>142</v>

--- a/03_adjustment_upload.xlsx
+++ b/03_adjustment_upload.xlsx
@@ -1665,7 +1665,7 @@
         <v>138</v>
       </c>
       <c r="D6">
-        <v>60000338</v>
+        <v>60000346</v>
       </c>
       <c r="F6" t="s">
         <v>142</v>
@@ -1703,7 +1703,7 @@
         <v>138</v>
       </c>
       <c r="D7">
-        <v>60000338</v>
+        <v>60000346</v>
       </c>
       <c r="F7" t="s">
         <v>143</v>
@@ -1741,7 +1741,7 @@
         <v>138</v>
       </c>
       <c r="D8">
-        <v>60000338</v>
+        <v>60000346</v>
       </c>
       <c r="F8" t="s">
         <v>144</v>
@@ -1779,7 +1779,7 @@
         <v>138</v>
       </c>
       <c r="D9">
-        <v>60000338</v>
+        <v>60000346</v>
       </c>
       <c r="F9" t="s">
         <v>145</v>
@@ -1817,7 +1817,7 @@
         <v>138</v>
       </c>
       <c r="D10">
-        <v>60000338</v>
+        <v>60000346</v>
       </c>
       <c r="F10" t="s">
         <v>146</v>
@@ -1858,7 +1858,7 @@
         <v>60000000</v>
       </c>
       <c r="E11">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="F11" t="s">
         <v>142</v>
@@ -1899,7 +1899,7 @@
         <v>60000000</v>
       </c>
       <c r="E12">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="F12" t="s">
         <v>143</v>
@@ -1940,7 +1940,7 @@
         <v>60000000</v>
       </c>
       <c r="E13">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="F13" t="s">
         <v>144</v>
@@ -1981,7 +1981,7 @@
         <v>60000000</v>
       </c>
       <c r="E14">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="F14" t="s">
         <v>145</v>
@@ -2022,7 +2022,7 @@
         <v>60000000</v>
       </c>
       <c r="E15">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="F15" t="s">
         <v>146</v>
@@ -2057,7 +2057,7 @@
         <v>138</v>
       </c>
       <c r="D16">
-        <v>60000338</v>
+        <v>60000346</v>
       </c>
       <c r="F16" t="s">
         <v>147</v>
@@ -2092,7 +2092,7 @@
         <v>138</v>
       </c>
       <c r="D17">
-        <v>60000338</v>
+        <v>60000346</v>
       </c>
       <c r="F17" t="s">
         <v>148</v>
@@ -2130,7 +2130,7 @@
         <v>60000000</v>
       </c>
       <c r="E18">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="F18" t="s">
         <v>147</v>
@@ -2168,7 +2168,7 @@
         <v>60000000</v>
       </c>
       <c r="E19">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="F19" t="s">
         <v>148</v>
@@ -2203,7 +2203,7 @@
         <v>138</v>
       </c>
       <c r="D20">
-        <v>60000339</v>
+        <v>60000347</v>
       </c>
       <c r="F20" t="s">
         <v>142</v>
@@ -2241,7 +2241,7 @@
         <v>60000000</v>
       </c>
       <c r="E21">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="F21" t="s">
         <v>142</v>
@@ -2276,7 +2276,7 @@
         <v>138</v>
       </c>
       <c r="D22">
-        <v>60000340</v>
+        <v>60000348</v>
       </c>
       <c r="F22" t="s">
         <v>142</v>
@@ -2314,7 +2314,7 @@
         <v>60000000</v>
       </c>
       <c r="E23">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="F23" t="s">
         <v>142</v>
@@ -2349,7 +2349,7 @@
         <v>138</v>
       </c>
       <c r="D24">
-        <v>60000341</v>
+        <v>60000349</v>
       </c>
       <c r="F24" t="s">
         <v>142</v>
@@ -2387,7 +2387,7 @@
         <v>60000000</v>
       </c>
       <c r="E25">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="F25" t="s">
         <v>142</v>
@@ -2422,7 +2422,7 @@
         <v>138</v>
       </c>
       <c r="D26">
-        <v>60000342</v>
+        <v>60000350</v>
       </c>
       <c r="F26" t="s">
         <v>142</v>
@@ -2460,7 +2460,7 @@
         <v>60000000</v>
       </c>
       <c r="E27">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="F27" t="s">
         <v>142</v>

--- a/03_adjustment_upload.xlsx
+++ b/03_adjustment_upload.xlsx
@@ -1665,7 +1665,7 @@
         <v>138</v>
       </c>
       <c r="D6">
-        <v>60000346</v>
+        <v>60000372</v>
       </c>
       <c r="F6" t="s">
         <v>142</v>
@@ -1703,7 +1703,7 @@
         <v>138</v>
       </c>
       <c r="D7">
-        <v>60000346</v>
+        <v>60000372</v>
       </c>
       <c r="F7" t="s">
         <v>143</v>
@@ -1741,7 +1741,7 @@
         <v>138</v>
       </c>
       <c r="D8">
-        <v>60000346</v>
+        <v>60000372</v>
       </c>
       <c r="F8" t="s">
         <v>144</v>
@@ -1779,7 +1779,7 @@
         <v>138</v>
       </c>
       <c r="D9">
-        <v>60000346</v>
+        <v>60000372</v>
       </c>
       <c r="F9" t="s">
         <v>145</v>
@@ -1817,7 +1817,7 @@
         <v>138</v>
       </c>
       <c r="D10">
-        <v>60000346</v>
+        <v>60000372</v>
       </c>
       <c r="F10" t="s">
         <v>146</v>
@@ -1858,7 +1858,7 @@
         <v>60000000</v>
       </c>
       <c r="E11">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="F11" t="s">
         <v>142</v>
@@ -1899,7 +1899,7 @@
         <v>60000000</v>
       </c>
       <c r="E12">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="F12" t="s">
         <v>143</v>
@@ -1940,7 +1940,7 @@
         <v>60000000</v>
       </c>
       <c r="E13">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="F13" t="s">
         <v>144</v>
@@ -1981,7 +1981,7 @@
         <v>60000000</v>
       </c>
       <c r="E14">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="F14" t="s">
         <v>145</v>
@@ -2022,7 +2022,7 @@
         <v>60000000</v>
       </c>
       <c r="E15">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="F15" t="s">
         <v>146</v>
@@ -2057,7 +2057,7 @@
         <v>138</v>
       </c>
       <c r="D16">
-        <v>60000346</v>
+        <v>60000372</v>
       </c>
       <c r="F16" t="s">
         <v>147</v>
@@ -2092,7 +2092,7 @@
         <v>138</v>
       </c>
       <c r="D17">
-        <v>60000346</v>
+        <v>60000372</v>
       </c>
       <c r="F17" t="s">
         <v>148</v>
@@ -2130,7 +2130,7 @@
         <v>60000000</v>
       </c>
       <c r="E18">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="F18" t="s">
         <v>147</v>
@@ -2168,7 +2168,7 @@
         <v>60000000</v>
       </c>
       <c r="E19">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="F19" t="s">
         <v>148</v>
@@ -2203,7 +2203,7 @@
         <v>138</v>
       </c>
       <c r="D20">
-        <v>60000347</v>
+        <v>60000373</v>
       </c>
       <c r="F20" t="s">
         <v>142</v>
@@ -2241,7 +2241,7 @@
         <v>60000000</v>
       </c>
       <c r="E21">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="F21" t="s">
         <v>142</v>
@@ -2276,7 +2276,7 @@
         <v>138</v>
       </c>
       <c r="D22">
-        <v>60000348</v>
+        <v>60000374</v>
       </c>
       <c r="F22" t="s">
         <v>142</v>
@@ -2314,7 +2314,7 @@
         <v>60000000</v>
       </c>
       <c r="E23">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="F23" t="s">
         <v>142</v>
@@ -2349,7 +2349,7 @@
         <v>138</v>
       </c>
       <c r="D24">
-        <v>60000349</v>
+        <v>60000375</v>
       </c>
       <c r="F24" t="s">
         <v>142</v>
@@ -2387,7 +2387,7 @@
         <v>60000000</v>
       </c>
       <c r="E25">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="F25" t="s">
         <v>142</v>
@@ -2422,7 +2422,7 @@
         <v>138</v>
       </c>
       <c r="D26">
-        <v>60000350</v>
+        <v>60000376</v>
       </c>
       <c r="F26" t="s">
         <v>142</v>
@@ -2460,7 +2460,7 @@
         <v>60000000</v>
       </c>
       <c r="E27">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="F27" t="s">
         <v>142</v>

--- a/03_adjustment_upload.xlsx
+++ b/03_adjustment_upload.xlsx
@@ -1665,7 +1665,7 @@
         <v>138</v>
       </c>
       <c r="D6">
-        <v>60000372</v>
+        <v>60000390</v>
       </c>
       <c r="F6" t="s">
         <v>142</v>
@@ -1703,7 +1703,7 @@
         <v>138</v>
       </c>
       <c r="D7">
-        <v>60000372</v>
+        <v>60000390</v>
       </c>
       <c r="F7" t="s">
         <v>143</v>
@@ -1741,7 +1741,7 @@
         <v>138</v>
       </c>
       <c r="D8">
-        <v>60000372</v>
+        <v>60000390</v>
       </c>
       <c r="F8" t="s">
         <v>144</v>
@@ -1779,7 +1779,7 @@
         <v>138</v>
       </c>
       <c r="D9">
-        <v>60000372</v>
+        <v>60000390</v>
       </c>
       <c r="F9" t="s">
         <v>145</v>
@@ -1817,7 +1817,7 @@
         <v>138</v>
       </c>
       <c r="D10">
-        <v>60000372</v>
+        <v>60000390</v>
       </c>
       <c r="F10" t="s">
         <v>146</v>
@@ -1858,7 +1858,7 @@
         <v>60000000</v>
       </c>
       <c r="E11">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="F11" t="s">
         <v>142</v>
@@ -1899,7 +1899,7 @@
         <v>60000000</v>
       </c>
       <c r="E12">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="F12" t="s">
         <v>143</v>
@@ -1940,7 +1940,7 @@
         <v>60000000</v>
       </c>
       <c r="E13">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="F13" t="s">
         <v>144</v>
@@ -1981,7 +1981,7 @@
         <v>60000000</v>
       </c>
       <c r="E14">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="F14" t="s">
         <v>145</v>
@@ -2022,7 +2022,7 @@
         <v>60000000</v>
       </c>
       <c r="E15">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="F15" t="s">
         <v>146</v>
@@ -2057,7 +2057,7 @@
         <v>138</v>
       </c>
       <c r="D16">
-        <v>60000372</v>
+        <v>60000390</v>
       </c>
       <c r="F16" t="s">
         <v>147</v>
@@ -2092,7 +2092,7 @@
         <v>138</v>
       </c>
       <c r="D17">
-        <v>60000372</v>
+        <v>60000390</v>
       </c>
       <c r="F17" t="s">
         <v>148</v>
@@ -2130,7 +2130,7 @@
         <v>60000000</v>
       </c>
       <c r="E18">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="F18" t="s">
         <v>147</v>
@@ -2168,7 +2168,7 @@
         <v>60000000</v>
       </c>
       <c r="E19">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="F19" t="s">
         <v>148</v>
@@ -2203,7 +2203,7 @@
         <v>138</v>
       </c>
       <c r="D20">
-        <v>60000373</v>
+        <v>60000391</v>
       </c>
       <c r="F20" t="s">
         <v>142</v>
@@ -2241,7 +2241,7 @@
         <v>60000000</v>
       </c>
       <c r="E21">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="F21" t="s">
         <v>142</v>
@@ -2276,7 +2276,7 @@
         <v>138</v>
       </c>
       <c r="D22">
-        <v>60000374</v>
+        <v>60000392</v>
       </c>
       <c r="F22" t="s">
         <v>142</v>
@@ -2314,7 +2314,7 @@
         <v>60000000</v>
       </c>
       <c r="E23">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="F23" t="s">
         <v>142</v>
@@ -2349,7 +2349,7 @@
         <v>138</v>
       </c>
       <c r="D24">
-        <v>60000375</v>
+        <v>60000393</v>
       </c>
       <c r="F24" t="s">
         <v>142</v>
@@ -2387,7 +2387,7 @@
         <v>60000000</v>
       </c>
       <c r="E25">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="F25" t="s">
         <v>142</v>
@@ -2422,7 +2422,7 @@
         <v>138</v>
       </c>
       <c r="D26">
-        <v>60000376</v>
+        <v>60000394</v>
       </c>
       <c r="F26" t="s">
         <v>142</v>
@@ -2460,7 +2460,7 @@
         <v>60000000</v>
       </c>
       <c r="E27">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="F27" t="s">
         <v>142</v>

--- a/03_adjustment_upload.xlsx
+++ b/03_adjustment_upload.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="187">
   <si>
     <t>Overview</t>
   </si>
@@ -279,13 +279,13 @@
     <t>Posting Depreciation Area</t>
   </si>
   <si>
-    <t>Document Date in Document</t>
-  </si>
-  <si>
-    <t>Posting Date in the Document</t>
-  </si>
-  <si>
-    <t>Asset Value Date</t>
+    <t>Document Date in Document (YYYY-MM-DD)</t>
+  </si>
+  <si>
+    <t>Posting Date in the Document (YYYY-MM-DD)</t>
+  </si>
+  <si>
+    <t>Asset Value Date (YYYY-MM-DD)</t>
   </si>
   <si>
     <t>Amount posted</t>
@@ -474,16 +474,19 @@
     <t>34</t>
   </si>
   <si>
-    <t>*Document Date in Document (YYYY-MM-DD)</t>
+    <t>*Document Date in Document (YYYY-MM-DD) (8)</t>
   </si>
   <si>
     <t>2022-01-03</t>
   </si>
   <si>
-    <t>*Posting Date in the Document (YYYY-MM-DD)</t>
-  </si>
-  <si>
-    <t>*Asset Value Date (YYYY-MM-DD)</t>
+    <t>*Posting Date in the Document (YYYY-MM-DD) (8)</t>
+  </si>
+  <si>
+    <t>*Asset Value Date (YYYY-MM-DD) (8)</t>
+  </si>
+  <si>
+    <t>Amount posted (23)</t>
   </si>
   <si>
     <t>100</t>
@@ -568,6 +571,12 @@
   </si>
   <si>
     <t>Work Breakdown Structure Element (WBS Element) (24)</t>
+  </si>
+  <si>
+    <t>Proportional Revaluation of Annual Ordinary Depreciation (23)</t>
+  </si>
+  <si>
+    <t>Proportional Accumul. Revaluation of Ordinary Depreciation (23)</t>
   </si>
 </sst>
 </file>
@@ -1212,7 +1221,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1235,29 +1244,46 @@
         <v>104</v>
       </c>
     </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" t="s">
+        <v>105</v>
+      </c>
+    </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
         <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
         <v>99</v>
@@ -1266,15 +1292,15 @@
         <v>102</v>
       </c>
       <c r="E4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
         <v>99</v>
@@ -1283,80 +1309,80 @@
         <v>102</v>
       </c>
       <c r="E5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
         <v>102</v>
       </c>
       <c r="E6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
       </c>
       <c r="D7" t="s">
         <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
         <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
         <v>99</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
         <v>99</v>
@@ -1370,10 +1396,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
         <v>99</v>
@@ -1387,130 +1413,113 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
         <v>102</v>
       </c>
       <c r="E13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
         <v>102</v>
       </c>
       <c r="E14" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s">
         <v>102</v>
       </c>
       <c r="E15" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D16" t="s">
         <v>102</v>
       </c>
       <c r="E16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D17" t="s">
         <v>102</v>
       </c>
       <c r="E17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D18" t="s">
         <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s">
         <v>102</v>
       </c>
       <c r="E19" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1630,28 +1639,28 @@
         <v>155</v>
       </c>
       <c r="K5" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="L5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q5" t="s">
-        <v>96</v>
+        <v>185</v>
       </c>
       <c r="R5" t="s">
-        <v>97</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1665,7 +1674,7 @@
         <v>138</v>
       </c>
       <c r="D6">
-        <v>60000390</v>
+        <v>60000408</v>
       </c>
       <c r="F6" t="s">
         <v>142</v>
@@ -1683,10 +1692,10 @@
         <v>153</v>
       </c>
       <c r="K6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q6" t="s">
         <v>105</v>
@@ -1703,7 +1712,7 @@
         <v>138</v>
       </c>
       <c r="D7">
-        <v>60000390</v>
+        <v>60000408</v>
       </c>
       <c r="F7" t="s">
         <v>143</v>
@@ -1721,10 +1730,10 @@
         <v>153</v>
       </c>
       <c r="K7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q7" t="s">
         <v>105</v>
@@ -1741,7 +1750,7 @@
         <v>138</v>
       </c>
       <c r="D8">
-        <v>60000390</v>
+        <v>60000408</v>
       </c>
       <c r="F8" t="s">
         <v>144</v>
@@ -1759,10 +1768,10 @@
         <v>153</v>
       </c>
       <c r="K8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q8" t="s">
         <v>105</v>
@@ -1779,7 +1788,7 @@
         <v>138</v>
       </c>
       <c r="D9">
-        <v>60000390</v>
+        <v>60000408</v>
       </c>
       <c r="F9" t="s">
         <v>145</v>
@@ -1797,10 +1806,10 @@
         <v>153</v>
       </c>
       <c r="K9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q9" t="s">
         <v>105</v>
@@ -1817,7 +1826,7 @@
         <v>138</v>
       </c>
       <c r="D10">
-        <v>60000390</v>
+        <v>60000408</v>
       </c>
       <c r="F10" t="s">
         <v>146</v>
@@ -1835,10 +1844,10 @@
         <v>153</v>
       </c>
       <c r="K10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q10" t="s">
         <v>105</v>
@@ -1858,7 +1867,7 @@
         <v>60000000</v>
       </c>
       <c r="E11">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="F11" t="s">
         <v>142</v>
@@ -1876,10 +1885,10 @@
         <v>153</v>
       </c>
       <c r="K11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q11" t="s">
         <v>105</v>
@@ -1899,7 +1908,7 @@
         <v>60000000</v>
       </c>
       <c r="E12">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="F12" t="s">
         <v>143</v>
@@ -1917,10 +1926,10 @@
         <v>153</v>
       </c>
       <c r="K12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q12" t="s">
         <v>105</v>
@@ -1940,7 +1949,7 @@
         <v>60000000</v>
       </c>
       <c r="E13">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="F13" t="s">
         <v>144</v>
@@ -1958,10 +1967,10 @@
         <v>153</v>
       </c>
       <c r="K13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q13" t="s">
         <v>105</v>
@@ -1981,7 +1990,7 @@
         <v>60000000</v>
       </c>
       <c r="E14">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="F14" t="s">
         <v>145</v>
@@ -1999,10 +2008,10 @@
         <v>153</v>
       </c>
       <c r="K14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q14" t="s">
         <v>105</v>
@@ -2022,7 +2031,7 @@
         <v>60000000</v>
       </c>
       <c r="E15">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="F15" t="s">
         <v>146</v>
@@ -2040,10 +2049,10 @@
         <v>153</v>
       </c>
       <c r="K15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2057,7 +2066,7 @@
         <v>138</v>
       </c>
       <c r="D16">
-        <v>60000390</v>
+        <v>60000408</v>
       </c>
       <c r="F16" t="s">
         <v>147</v>
@@ -2075,10 +2084,10 @@
         <v>153</v>
       </c>
       <c r="K16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2092,7 +2101,7 @@
         <v>138</v>
       </c>
       <c r="D17">
-        <v>60000390</v>
+        <v>60000408</v>
       </c>
       <c r="F17" t="s">
         <v>148</v>
@@ -2110,10 +2119,10 @@
         <v>153</v>
       </c>
       <c r="K17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2130,7 +2139,7 @@
         <v>60000000</v>
       </c>
       <c r="E18">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="F18" t="s">
         <v>147</v>
@@ -2148,10 +2157,10 @@
         <v>153</v>
       </c>
       <c r="K18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2168,7 +2177,7 @@
         <v>60000000</v>
       </c>
       <c r="E19">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="F19" t="s">
         <v>148</v>
@@ -2186,10 +2195,10 @@
         <v>153</v>
       </c>
       <c r="K19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2203,7 +2212,7 @@
         <v>138</v>
       </c>
       <c r="D20">
-        <v>60000391</v>
+        <v>60000409</v>
       </c>
       <c r="F20" t="s">
         <v>142</v>
@@ -2221,10 +2230,10 @@
         <v>153</v>
       </c>
       <c r="K20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2241,7 +2250,7 @@
         <v>60000000</v>
       </c>
       <c r="E21">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="F21" t="s">
         <v>142</v>
@@ -2259,10 +2268,10 @@
         <v>153</v>
       </c>
       <c r="K21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L21" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2276,7 +2285,7 @@
         <v>138</v>
       </c>
       <c r="D22">
-        <v>60000392</v>
+        <v>60000410</v>
       </c>
       <c r="F22" t="s">
         <v>142</v>
@@ -2294,10 +2303,10 @@
         <v>153</v>
       </c>
       <c r="K22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2314,7 +2323,7 @@
         <v>60000000</v>
       </c>
       <c r="E23">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="F23" t="s">
         <v>142</v>
@@ -2332,10 +2341,10 @@
         <v>153</v>
       </c>
       <c r="K23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L23" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2349,7 +2358,7 @@
         <v>138</v>
       </c>
       <c r="D24">
-        <v>60000393</v>
+        <v>60000411</v>
       </c>
       <c r="F24" t="s">
         <v>142</v>
@@ -2367,10 +2376,10 @@
         <v>153</v>
       </c>
       <c r="K24" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2387,7 +2396,7 @@
         <v>60000000</v>
       </c>
       <c r="E25">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="F25" t="s">
         <v>142</v>
@@ -2405,10 +2414,10 @@
         <v>153</v>
       </c>
       <c r="K25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2422,7 +2431,7 @@
         <v>138</v>
       </c>
       <c r="D26">
-        <v>60000394</v>
+        <v>60000412</v>
       </c>
       <c r="F26" t="s">
         <v>142</v>
@@ -2440,10 +2449,10 @@
         <v>153</v>
       </c>
       <c r="K26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L26" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2460,7 +2469,7 @@
         <v>60000000</v>
       </c>
       <c r="E27">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="F27" t="s">
         <v>142</v>
@@ -2478,10 +2487,10 @@
         <v>153</v>
       </c>
       <c r="K27" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/03_adjustment_upload.xlsx
+++ b/03_adjustment_upload.xlsx
@@ -1674,7 +1674,7 @@
         <v>138</v>
       </c>
       <c r="D6">
-        <v>60000408</v>
+        <v>60000426</v>
       </c>
       <c r="F6" t="s">
         <v>142</v>
@@ -1712,7 +1712,7 @@
         <v>138</v>
       </c>
       <c r="D7">
-        <v>60000408</v>
+        <v>60000426</v>
       </c>
       <c r="F7" t="s">
         <v>143</v>
@@ -1750,7 +1750,7 @@
         <v>138</v>
       </c>
       <c r="D8">
-        <v>60000408</v>
+        <v>60000426</v>
       </c>
       <c r="F8" t="s">
         <v>144</v>
@@ -1788,7 +1788,7 @@
         <v>138</v>
       </c>
       <c r="D9">
-        <v>60000408</v>
+        <v>60000426</v>
       </c>
       <c r="F9" t="s">
         <v>145</v>
@@ -1826,7 +1826,7 @@
         <v>138</v>
       </c>
       <c r="D10">
-        <v>60000408</v>
+        <v>60000426</v>
       </c>
       <c r="F10" t="s">
         <v>146</v>
@@ -1867,7 +1867,7 @@
         <v>60000000</v>
       </c>
       <c r="E11">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="F11" t="s">
         <v>142</v>
@@ -1908,7 +1908,7 @@
         <v>60000000</v>
       </c>
       <c r="E12">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="F12" t="s">
         <v>143</v>
@@ -1949,7 +1949,7 @@
         <v>60000000</v>
       </c>
       <c r="E13">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="F13" t="s">
         <v>144</v>
@@ -1990,7 +1990,7 @@
         <v>60000000</v>
       </c>
       <c r="E14">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="F14" t="s">
         <v>145</v>
@@ -2031,7 +2031,7 @@
         <v>60000000</v>
       </c>
       <c r="E15">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="F15" t="s">
         <v>146</v>
@@ -2066,7 +2066,7 @@
         <v>138</v>
       </c>
       <c r="D16">
-        <v>60000408</v>
+        <v>60000426</v>
       </c>
       <c r="F16" t="s">
         <v>147</v>
@@ -2101,7 +2101,7 @@
         <v>138</v>
       </c>
       <c r="D17">
-        <v>60000408</v>
+        <v>60000426</v>
       </c>
       <c r="F17" t="s">
         <v>148</v>
@@ -2139,7 +2139,7 @@
         <v>60000000</v>
       </c>
       <c r="E18">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="F18" t="s">
         <v>147</v>
@@ -2177,7 +2177,7 @@
         <v>60000000</v>
       </c>
       <c r="E19">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="F19" t="s">
         <v>148</v>
@@ -2212,7 +2212,7 @@
         <v>138</v>
       </c>
       <c r="D20">
-        <v>60000409</v>
+        <v>60000427</v>
       </c>
       <c r="F20" t="s">
         <v>142</v>
@@ -2250,7 +2250,7 @@
         <v>60000000</v>
       </c>
       <c r="E21">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="F21" t="s">
         <v>142</v>
@@ -2285,7 +2285,7 @@
         <v>138</v>
       </c>
       <c r="D22">
-        <v>60000410</v>
+        <v>60000428</v>
       </c>
       <c r="F22" t="s">
         <v>142</v>
@@ -2323,7 +2323,7 @@
         <v>60000000</v>
       </c>
       <c r="E23">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="F23" t="s">
         <v>142</v>
@@ -2358,7 +2358,7 @@
         <v>138</v>
       </c>
       <c r="D24">
-        <v>60000411</v>
+        <v>60000429</v>
       </c>
       <c r="F24" t="s">
         <v>142</v>
@@ -2396,7 +2396,7 @@
         <v>60000000</v>
       </c>
       <c r="E25">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="F25" t="s">
         <v>142</v>
@@ -2431,7 +2431,7 @@
         <v>138</v>
       </c>
       <c r="D26">
-        <v>60000412</v>
+        <v>60000430</v>
       </c>
       <c r="F26" t="s">
         <v>142</v>
@@ -2469,7 +2469,7 @@
         <v>60000000</v>
       </c>
       <c r="E27">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="F27" t="s">
         <v>142</v>

--- a/03_adjustment_upload.xlsx
+++ b/03_adjustment_upload.xlsx
@@ -1674,7 +1674,7 @@
         <v>138</v>
       </c>
       <c r="D6">
-        <v>60000426</v>
+        <v>60000460</v>
       </c>
       <c r="F6" t="s">
         <v>142</v>
@@ -1712,7 +1712,7 @@
         <v>138</v>
       </c>
       <c r="D7">
-        <v>60000426</v>
+        <v>60000460</v>
       </c>
       <c r="F7" t="s">
         <v>143</v>
@@ -1750,7 +1750,7 @@
         <v>138</v>
       </c>
       <c r="D8">
-        <v>60000426</v>
+        <v>60000460</v>
       </c>
       <c r="F8" t="s">
         <v>144</v>
@@ -1788,7 +1788,7 @@
         <v>138</v>
       </c>
       <c r="D9">
-        <v>60000426</v>
+        <v>60000460</v>
       </c>
       <c r="F9" t="s">
         <v>145</v>
@@ -1826,7 +1826,7 @@
         <v>138</v>
       </c>
       <c r="D10">
-        <v>60000426</v>
+        <v>60000460</v>
       </c>
       <c r="F10" t="s">
         <v>146</v>
@@ -1867,7 +1867,7 @@
         <v>60000000</v>
       </c>
       <c r="E11">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="F11" t="s">
         <v>142</v>
@@ -1908,7 +1908,7 @@
         <v>60000000</v>
       </c>
       <c r="E12">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="F12" t="s">
         <v>143</v>
@@ -1949,7 +1949,7 @@
         <v>60000000</v>
       </c>
       <c r="E13">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="F13" t="s">
         <v>144</v>
@@ -1990,7 +1990,7 @@
         <v>60000000</v>
       </c>
       <c r="E14">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="F14" t="s">
         <v>145</v>
@@ -2031,7 +2031,7 @@
         <v>60000000</v>
       </c>
       <c r="E15">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="F15" t="s">
         <v>146</v>
@@ -2066,7 +2066,7 @@
         <v>138</v>
       </c>
       <c r="D16">
-        <v>60000426</v>
+        <v>60000460</v>
       </c>
       <c r="F16" t="s">
         <v>147</v>
@@ -2101,7 +2101,7 @@
         <v>138</v>
       </c>
       <c r="D17">
-        <v>60000426</v>
+        <v>60000460</v>
       </c>
       <c r="F17" t="s">
         <v>148</v>
@@ -2139,7 +2139,7 @@
         <v>60000000</v>
       </c>
       <c r="E18">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="F18" t="s">
         <v>147</v>
@@ -2177,7 +2177,7 @@
         <v>60000000</v>
       </c>
       <c r="E19">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="F19" t="s">
         <v>148</v>
@@ -2212,7 +2212,7 @@
         <v>138</v>
       </c>
       <c r="D20">
-        <v>60000427</v>
+        <v>60000461</v>
       </c>
       <c r="F20" t="s">
         <v>142</v>
@@ -2250,7 +2250,7 @@
         <v>60000000</v>
       </c>
       <c r="E21">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="F21" t="s">
         <v>142</v>
@@ -2285,7 +2285,7 @@
         <v>138</v>
       </c>
       <c r="D22">
-        <v>60000428</v>
+        <v>60000462</v>
       </c>
       <c r="F22" t="s">
         <v>142</v>
@@ -2323,7 +2323,7 @@
         <v>60000000</v>
       </c>
       <c r="E23">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="F23" t="s">
         <v>142</v>
@@ -2358,7 +2358,7 @@
         <v>138</v>
       </c>
       <c r="D24">
-        <v>60000429</v>
+        <v>60000463</v>
       </c>
       <c r="F24" t="s">
         <v>142</v>
@@ -2396,7 +2396,7 @@
         <v>60000000</v>
       </c>
       <c r="E25">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="F25" t="s">
         <v>142</v>
@@ -2431,7 +2431,7 @@
         <v>138</v>
       </c>
       <c r="D26">
-        <v>60000430</v>
+        <v>60000464</v>
       </c>
       <c r="F26" t="s">
         <v>142</v>
@@ -2469,7 +2469,7 @@
         <v>60000000</v>
       </c>
       <c r="E27">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="F27" t="s">
         <v>142</v>

--- a/03_adjustment_upload.xlsx
+++ b/03_adjustment_upload.xlsx
@@ -1674,7 +1674,7 @@
         <v>138</v>
       </c>
       <c r="D6">
-        <v>60000460</v>
+        <v>60000468</v>
       </c>
       <c r="F6" t="s">
         <v>142</v>
@@ -1712,7 +1712,7 @@
         <v>138</v>
       </c>
       <c r="D7">
-        <v>60000460</v>
+        <v>60000468</v>
       </c>
       <c r="F7" t="s">
         <v>143</v>
@@ -1750,7 +1750,7 @@
         <v>138</v>
       </c>
       <c r="D8">
-        <v>60000460</v>
+        <v>60000468</v>
       </c>
       <c r="F8" t="s">
         <v>144</v>
@@ -1788,7 +1788,7 @@
         <v>138</v>
       </c>
       <c r="D9">
-        <v>60000460</v>
+        <v>60000468</v>
       </c>
       <c r="F9" t="s">
         <v>145</v>
@@ -1826,7 +1826,7 @@
         <v>138</v>
       </c>
       <c r="D10">
-        <v>60000460</v>
+        <v>60000468</v>
       </c>
       <c r="F10" t="s">
         <v>146</v>
@@ -1867,7 +1867,7 @@
         <v>60000000</v>
       </c>
       <c r="E11">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="F11" t="s">
         <v>142</v>
@@ -1908,7 +1908,7 @@
         <v>60000000</v>
       </c>
       <c r="E12">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="F12" t="s">
         <v>143</v>
@@ -1949,7 +1949,7 @@
         <v>60000000</v>
       </c>
       <c r="E13">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="F13" t="s">
         <v>144</v>
@@ -1990,7 +1990,7 @@
         <v>60000000</v>
       </c>
       <c r="E14">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="F14" t="s">
         <v>145</v>
@@ -2031,7 +2031,7 @@
         <v>60000000</v>
       </c>
       <c r="E15">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="F15" t="s">
         <v>146</v>
@@ -2066,7 +2066,7 @@
         <v>138</v>
       </c>
       <c r="D16">
-        <v>60000460</v>
+        <v>60000468</v>
       </c>
       <c r="F16" t="s">
         <v>147</v>
@@ -2101,7 +2101,7 @@
         <v>138</v>
       </c>
       <c r="D17">
-        <v>60000460</v>
+        <v>60000468</v>
       </c>
       <c r="F17" t="s">
         <v>148</v>
@@ -2139,7 +2139,7 @@
         <v>60000000</v>
       </c>
       <c r="E18">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="F18" t="s">
         <v>147</v>
@@ -2177,7 +2177,7 @@
         <v>60000000</v>
       </c>
       <c r="E19">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="F19" t="s">
         <v>148</v>
@@ -2212,7 +2212,7 @@
         <v>138</v>
       </c>
       <c r="D20">
-        <v>60000461</v>
+        <v>60000469</v>
       </c>
       <c r="F20" t="s">
         <v>142</v>
@@ -2250,7 +2250,7 @@
         <v>60000000</v>
       </c>
       <c r="E21">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="F21" t="s">
         <v>142</v>
@@ -2285,7 +2285,7 @@
         <v>138</v>
       </c>
       <c r="D22">
-        <v>60000462</v>
+        <v>60000470</v>
       </c>
       <c r="F22" t="s">
         <v>142</v>
@@ -2323,7 +2323,7 @@
         <v>60000000</v>
       </c>
       <c r="E23">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="F23" t="s">
         <v>142</v>
@@ -2358,7 +2358,7 @@
         <v>138</v>
       </c>
       <c r="D24">
-        <v>60000463</v>
+        <v>60000471</v>
       </c>
       <c r="F24" t="s">
         <v>142</v>
@@ -2396,7 +2396,7 @@
         <v>60000000</v>
       </c>
       <c r="E25">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="F25" t="s">
         <v>142</v>
@@ -2431,7 +2431,7 @@
         <v>138</v>
       </c>
       <c r="D26">
-        <v>60000464</v>
+        <v>60000472</v>
       </c>
       <c r="F26" t="s">
         <v>142</v>
@@ -2469,7 +2469,7 @@
         <v>60000000</v>
       </c>
       <c r="E27">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="F27" t="s">
         <v>142</v>

--- a/03_adjustment_upload.xlsx
+++ b/03_adjustment_upload.xlsx
@@ -1674,7 +1674,7 @@
         <v>138</v>
       </c>
       <c r="D6">
-        <v>60000468</v>
+        <v>60000476</v>
       </c>
       <c r="F6" t="s">
         <v>142</v>
@@ -1712,7 +1712,7 @@
         <v>138</v>
       </c>
       <c r="D7">
-        <v>60000468</v>
+        <v>60000476</v>
       </c>
       <c r="F7" t="s">
         <v>143</v>
@@ -1750,7 +1750,7 @@
         <v>138</v>
       </c>
       <c r="D8">
-        <v>60000468</v>
+        <v>60000476</v>
       </c>
       <c r="F8" t="s">
         <v>144</v>
@@ -1788,7 +1788,7 @@
         <v>138</v>
       </c>
       <c r="D9">
-        <v>60000468</v>
+        <v>60000476</v>
       </c>
       <c r="F9" t="s">
         <v>145</v>
@@ -1826,7 +1826,7 @@
         <v>138</v>
       </c>
       <c r="D10">
-        <v>60000468</v>
+        <v>60000476</v>
       </c>
       <c r="F10" t="s">
         <v>146</v>
@@ -1867,7 +1867,7 @@
         <v>60000000</v>
       </c>
       <c r="E11">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="F11" t="s">
         <v>142</v>
@@ -1908,7 +1908,7 @@
         <v>60000000</v>
       </c>
       <c r="E12">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="F12" t="s">
         <v>143</v>
@@ -1949,7 +1949,7 @@
         <v>60000000</v>
       </c>
       <c r="E13">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="F13" t="s">
         <v>144</v>
@@ -1990,7 +1990,7 @@
         <v>60000000</v>
       </c>
       <c r="E14">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="F14" t="s">
         <v>145</v>
@@ -2031,7 +2031,7 @@
         <v>60000000</v>
       </c>
       <c r="E15">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="F15" t="s">
         <v>146</v>
@@ -2066,7 +2066,7 @@
         <v>138</v>
       </c>
       <c r="D16">
-        <v>60000468</v>
+        <v>60000476</v>
       </c>
       <c r="F16" t="s">
         <v>147</v>
@@ -2101,7 +2101,7 @@
         <v>138</v>
       </c>
       <c r="D17">
-        <v>60000468</v>
+        <v>60000476</v>
       </c>
       <c r="F17" t="s">
         <v>148</v>
@@ -2139,7 +2139,7 @@
         <v>60000000</v>
       </c>
       <c r="E18">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="F18" t="s">
         <v>147</v>
@@ -2177,7 +2177,7 @@
         <v>60000000</v>
       </c>
       <c r="E19">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="F19" t="s">
         <v>148</v>
@@ -2212,7 +2212,7 @@
         <v>138</v>
       </c>
       <c r="D20">
-        <v>60000469</v>
+        <v>60000477</v>
       </c>
       <c r="F20" t="s">
         <v>142</v>
@@ -2250,7 +2250,7 @@
         <v>60000000</v>
       </c>
       <c r="E21">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="F21" t="s">
         <v>142</v>
@@ -2285,7 +2285,7 @@
         <v>138</v>
       </c>
       <c r="D22">
-        <v>60000470</v>
+        <v>60000478</v>
       </c>
       <c r="F22" t="s">
         <v>142</v>
@@ -2323,7 +2323,7 @@
         <v>60000000</v>
       </c>
       <c r="E23">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="F23" t="s">
         <v>142</v>
@@ -2358,7 +2358,7 @@
         <v>138</v>
       </c>
       <c r="D24">
-        <v>60000471</v>
+        <v>60000479</v>
       </c>
       <c r="F24" t="s">
         <v>142</v>
@@ -2396,7 +2396,7 @@
         <v>60000000</v>
       </c>
       <c r="E25">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="F25" t="s">
         <v>142</v>
@@ -2431,7 +2431,7 @@
         <v>138</v>
       </c>
       <c r="D26">
-        <v>60000472</v>
+        <v>60000480</v>
       </c>
       <c r="F26" t="s">
         <v>142</v>
@@ -2469,7 +2469,7 @@
         <v>60000000</v>
       </c>
       <c r="E27">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="F27" t="s">
         <v>142</v>
